--- a/results/params/data_param.xlsx
+++ b/results/params/data_param.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuenl-my.sharepoint.com/personal/p_f_v_beerendonk_student_tue_nl/Documents/Desktop/final project/final_thesis/final_thesis_partitioning/results/params/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="958" documentId="11_F25DC773A252ABDACC104837699F7C7C5ADE58F6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F17F561C-A59B-4B61-BDC7-9A112A8F03E1}"/>
+  <xr:revisionPtr revIDLastSave="959" documentId="11_F25DC773A252ABDACC104837699F7C7C5ADE58F6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AAE3553A-78B2-4230-A8D2-E4A3CB664113}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tue_logo" sheetId="5" r:id="rId1"/>
     <sheet name="propeller" sheetId="6" r:id="rId2"/>
-    <sheet name="images" sheetId="10" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -74,7 +73,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,13 +84,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -147,7 +139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -160,15 +152,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -455,8 +438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36EE5372-4680-43A4-BB5F-3858E07E70E9}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1209,7 +1192,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1954,177 +1937,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8189D4DD-291D-4CB9-A0FF-BB5726174015}">
-  <dimension ref="A1:H10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="6" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11"/>
-      <c r="B1" s="13">
-        <v>7</v>
-      </c>
-      <c r="C1" s="13">
-        <v>6</v>
-      </c>
-      <c r="D1" s="13">
-        <v>5</v>
-      </c>
-      <c r="E1" s="13">
-        <v>4</v>
-      </c>
-      <c r="F1" s="13">
-        <v>3</v>
-      </c>
-      <c r="G1" s="13">
-        <v>2</v>
-      </c>
-      <c r="H1" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14">
-        <v>1</v>
-      </c>
-      <c r="B2" s="12">
-        <v>6</v>
-      </c>
-      <c r="C2" s="12">
-        <v>6</v>
-      </c>
-      <c r="D2" s="12">
-        <v>6</v>
-      </c>
-      <c r="E2" s="12">
-        <v>7</v>
-      </c>
-      <c r="F2" s="12">
-        <v>6</v>
-      </c>
-      <c r="G2" s="12">
-        <v>6</v>
-      </c>
-      <c r="H2" s="12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14">
-        <v>2</v>
-      </c>
-      <c r="B3" s="12">
-        <v>6</v>
-      </c>
-      <c r="C3" s="12">
-        <v>6</v>
-      </c>
-      <c r="D3" s="12">
-        <v>7</v>
-      </c>
-      <c r="E3" s="12">
-        <v>7</v>
-      </c>
-      <c r="F3" s="12">
-        <v>6</v>
-      </c>
-      <c r="G3" s="12">
-        <v>6</v>
-      </c>
-      <c r="H3" s="12">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14">
-        <v>3</v>
-      </c>
-      <c r="B4" s="12">
-        <v>6</v>
-      </c>
-      <c r="C4" s="12">
-        <v>6</v>
-      </c>
-      <c r="D4" s="12">
-        <v>7</v>
-      </c>
-      <c r="E4" s="12">
-        <v>5</v>
-      </c>
-      <c r="F4" s="12">
-        <v>6</v>
-      </c>
-      <c r="G4" s="12">
-        <v>6</v>
-      </c>
-      <c r="H4" s="12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14">
-        <v>4</v>
-      </c>
-      <c r="B5" s="12">
-        <v>6</v>
-      </c>
-      <c r="C5" s="12">
-        <v>5</v>
-      </c>
-      <c r="D5" s="12">
-        <v>6</v>
-      </c>
-      <c r="E5" s="12">
-        <v>5</v>
-      </c>
-      <c r="F5" s="12">
-        <v>6</v>
-      </c>
-      <c r="G5" s="12">
-        <v>6</v>
-      </c>
-      <c r="H5" s="12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="14">
-        <v>5</v>
-      </c>
-      <c r="B6" s="12">
-        <v>5</v>
-      </c>
-      <c r="C6" s="12">
-        <v>5</v>
-      </c>
-      <c r="D6" s="12">
-        <v>5</v>
-      </c>
-      <c r="E6" s="12">
-        <v>5</v>
-      </c>
-      <c r="F6" s="12">
-        <v>6</v>
-      </c>
-      <c r="G6" s="12">
-        <v>6</v>
-      </c>
-      <c r="H6" s="12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>